--- a/数据整理/stocks/A股/上证主板/603583-捷昌驱动.xlsx
+++ b/数据整理/stocks/A股/上证主板/603583-捷昌驱动.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2721,4 +2722,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2897</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5400</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2748</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2716</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2633</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603583-捷昌驱动.xlsx
+++ b/数据整理/stocks/A股/上证主板/603583-捷昌驱动.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3576,4 +3577,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4506</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603583-捷昌驱动.xlsx
+++ b/数据整理/stocks/A股/上证主板/603583-捷昌驱动.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4051,4 +4052,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603583-捷昌驱动.xlsx
+++ b/数据整理/stocks/A股/上证主板/603583-捷昌驱动.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4060,7 +4061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4071,17 +4072,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4091,14 +4112,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.28</v>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1936</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4107,14 +4150,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.22</v>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0789</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4123,14 +4188,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.87</v>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4139,13 +4226,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4648</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>57.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>57.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>31</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603583-捷昌驱动.xlsx
+++ b/数据整理/stocks/A股/上证主板/603583-捷昌驱动.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4763,7 +4764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4774,17 +4775,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4794,14 +4815,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.27</v>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4810,14 +4853,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.28</v>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4826,14 +4891,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.22</v>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4842,14 +4929,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>2.87</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="6">
@@ -4858,13 +5067,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>31</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603583-捷昌驱动.xlsx
+++ b/数据整理/stocks/A股/上证主板/603583-捷昌驱动.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4972,7 +4973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4983,17 +4984,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5003,14 +5024,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5019,14 +5062,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.27</v>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5035,14 +5100,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.28</v>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5051,14 +5138,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.22</v>
+          <t>013630</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -5067,14 +5176,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>26</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.87</v>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -5083,13 +5214,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013631</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>31</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603583-捷昌驱动.xlsx
+++ b/数据整理/stocks/A股/上证主板/603583-捷昌驱动.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>4.27</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>1.28</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>4.22</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>2.87</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>31</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.01</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013630</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013631</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,7 +1582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1869,7 +2284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2343,7 +2758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3197,7 +3612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4241,7 +4656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603583-捷昌驱动.xlsx
+++ b/数据整理/stocks/A股/上证主板/603583-捷昌驱动.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4.27</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>1.28</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>4.22</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>2.87</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1264 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>26</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>31</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6378</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6027</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5050</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3693</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3693</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005796</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实新添荣定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3571</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2591</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>34.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009691</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰浩益18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009692</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰浩益18个月封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>47.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>42.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006982</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实新添元定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006983</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实新添元定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005797</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实新添荣定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>42.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1868,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1014,7 +2397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1374,7 +2757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1582,7 +2965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2284,7 +3667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2758,7 +4141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3612,7 +4995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4654,1238 +6037,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519087</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>新华优选分红混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.80</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6378</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006158</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时荣享回报灵活配置定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>67.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6027</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001039</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实先进制造股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5050</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>960023</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银稳健成长混合H</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.89</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3693</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>481004</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银稳健成长混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.89</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3693</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005796</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实新添荣定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.82</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>60.66</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3571</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2591</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1817</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008499</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏扬景科混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>33.73</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1095</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001755</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实新思路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>25.95</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1047</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001681</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>新华积极价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>34.26</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0850</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0605</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009691</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰浩益18个月封闭运作混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>20.93</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0597</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009692</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国泰浩益18个月封闭运作混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>20.93</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0597</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005522</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华泰保兴吉年福定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>47.97</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0332</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002604</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏新起点灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0310</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000591</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中银健康生活混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>86.49</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000120</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中银美丽中国混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>84.65</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008082</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国寿安保研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008093</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>同泰慧选混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006159</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时荣享回报灵活配置定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>67.26</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008500</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鹏扬景科混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>33.73</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005088</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>嘉实新添辉定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>42.11</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>000788</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>前海开源中国成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.32</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006982</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>嘉实新添元定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>25.88</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008094</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>同泰慧选混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006983</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>嘉实新添元定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>25.88</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>008083</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国寿安保研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005797</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>嘉实新添荣定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>60.66</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005089</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>嘉实新添辉定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>42.11</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>008213</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华夏新起点灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>